--- a/Results/MultivModels_DOnsetMin#0#Max#30_AgeMin#30#Max#70_Target#IOT+death_Std#PowerTransformer_DatasetMaskedByCCI_RegFixed#False_NansRowGroupwise#50_PCAPercVarTh#5/StdParameters_model#LR_name#FC.xlsx
+++ b/Results/MultivModels_DOnsetMin#0#Max#30_AgeMin#30#Max#70_Target#IOT+death_Std#PowerTransformer_DatasetMaskedByCCI_RegFixed#False_NansRowGroupwise#50_PCAPercVarTh#5/StdParameters_model#LR_name#FC.xlsx
@@ -426,7 +426,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.05</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -434,7 +434,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.001</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -458,7 +458,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.0001</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -474,7 +474,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>5</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -482,7 +482,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>5</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -490,7 +490,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.05</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -498,7 +498,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1</v>
+        <v>0.0001</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -506,7 +506,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.0001</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -514,7 +514,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.001</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -522,7 +522,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -530,7 +530,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.0001</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -538,7 +538,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -546,7 +546,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.1</v>
+        <v>0.0001</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -562,7 +562,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.5</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -570,7 +570,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.001</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -578,7 +578,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>5</v>
+        <v>0.0001</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -586,7 +586,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.001</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -594,7 +594,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.001</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -602,7 +602,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.5</v>
+        <v>5</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -618,7 +618,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>0.0001</v>
+        <v>5</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -626,7 +626,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -634,7 +634,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -642,7 +642,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>0.1</v>
+        <v>0.0001</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -650,7 +650,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>0.0001</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -658,7 +658,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>0.001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -666,7 +666,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>0.05</v>
+        <v>5</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -674,7 +674,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>5</v>
+        <v>0.0001</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -682,7 +682,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -690,7 +690,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>5</v>
+        <v>0.0001</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -698,7 +698,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>0.0001</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -706,7 +706,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>5</v>
+        <v>0.0001</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -714,7 +714,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -722,7 +722,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -730,7 +730,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>0.01</v>
+        <v>0.0001</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -738,7 +738,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>5</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -746,7 +746,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>5</v>
+        <v>0.0001</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -754,7 +754,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>0.0001</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -762,7 +762,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>0.1</v>
+        <v>0.0001</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -770,7 +770,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>0.0001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -794,7 +794,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>0.05</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -802,7 +802,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>0.1</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -818,7 +818,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>5</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -834,7 +834,7 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>0.05</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -842,7 +842,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>0.0001</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -850,7 +850,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -866,7 +866,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>0.05</v>
+        <v>5</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -882,7 +882,7 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -890,7 +890,7 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>0.5</v>
+        <v>0.0001</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -898,7 +898,7 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -906,7 +906,7 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>0.1</v>
+        <v>0.0001</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -914,7 +914,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -922,7 +922,7 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>0.0001</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -938,7 +938,7 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>0.01</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -946,7 +946,7 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -954,7 +954,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -962,7 +962,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>0.0001</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -978,7 +978,7 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>0.0001</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -986,7 +986,7 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>1</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -994,7 +994,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>0.05</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -1002,7 +1002,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>0.1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -1010,7 +1010,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>0.01</v>
+        <v>0.0001</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -1034,7 +1034,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -1042,7 +1042,7 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>5</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -1050,7 +1050,7 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>0.0001</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -1066,7 +1066,7 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>0.001</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -1074,7 +1074,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>0.001</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="84" spans="1:2">
@@ -1082,7 +1082,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>5</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -1090,7 +1090,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="86" spans="1:2">
@@ -1098,7 +1098,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="87" spans="1:2">
@@ -1106,7 +1106,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>5</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="88" spans="1:2">
@@ -1114,7 +1114,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>0.0001</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="89" spans="1:2">
@@ -1122,7 +1122,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>0.0001</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -1130,7 +1130,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>0.001</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="91" spans="1:2">
@@ -1138,7 +1138,7 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>0.0001</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="92" spans="1:2">
@@ -1146,7 +1146,7 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>0.05</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="93" spans="1:2">
@@ -1154,7 +1154,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>0.01</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94" spans="1:2">
@@ -1162,7 +1162,7 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="95" spans="1:2">
@@ -1170,7 +1170,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>1</v>
+        <v>0.0001</v>
       </c>
     </row>
     <row r="96" spans="1:2">
@@ -1178,7 +1178,7 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="97" spans="1:2">
@@ -1186,7 +1186,7 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>0.01</v>
+        <v>0.0001</v>
       </c>
     </row>
     <row r="98" spans="1:2">
@@ -1194,7 +1194,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>0.01</v>
+        <v>0.0001</v>
       </c>
     </row>
     <row r="99" spans="1:2">
@@ -1202,7 +1202,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>0.05</v>
+        <v>10</v>
       </c>
     </row>
     <row r="100" spans="1:2">
@@ -1210,7 +1210,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>0.01</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="101" spans="1:2">
@@ -1218,7 +1218,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>5</v>
+        <v>0.01</v>
       </c>
     </row>
   </sheetData>
